--- a/Data_preparation/datasets/final_data/iRobot_Corporation.xlsx
+++ b/Data_preparation/datasets/final_data/iRobot_Corporation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,96 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>000660 KS</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>TIETO FH</t>
-  </si>
-  <si>
-    <t>SIE GR</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>2337 TT</t>
-  </si>
-  <si>
-    <t>6702 JP</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>WDAY</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>CGNX</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>XRO AU</t>
-  </si>
-  <si>
-    <t>3690 HK</t>
   </si>
 </sst>
 </file>
@@ -742,22 +652,22 @@
         <v>42091</v>
       </c>
       <c r="D2">
-        <v>39959.5931194136</v>
+        <v>32.59999847412109</v>
       </c>
       <c r="E2">
-        <v>40133.51953125</v>
+        <v>32.41999816894531</v>
       </c>
       <c r="F2">
-        <v>41307.52281114572</v>
+        <v>34.93000030517578</v>
       </c>
       <c r="G2">
-        <v>36133.21205901273</v>
+        <v>31.78000068664551</v>
       </c>
       <c r="H2">
-        <v>690412123</v>
+        <v>31367897</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>948915837</v>
@@ -867,22 +777,22 @@
         <v>42182</v>
       </c>
       <c r="D3">
-        <v>22.20472198577177</v>
+        <v>32.11000061035156</v>
       </c>
       <c r="E3">
-        <v>24.99118041992188</v>
+        <v>30.79000091552734</v>
       </c>
       <c r="F3">
-        <v>24.99118041992188</v>
+        <v>32.88999938964844</v>
       </c>
       <c r="G3">
-        <v>21.11994795200058</v>
+        <v>30.10000038146973</v>
       </c>
       <c r="H3">
-        <v>229140423</v>
+        <v>31367897</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>990112536</v>
@@ -992,22 +902,22 @@
         <v>42273</v>
       </c>
       <c r="D4">
-        <v>417.03291015625</v>
+        <v>29.06999969482422</v>
       </c>
       <c r="E4">
-        <v>521.2911376953125</v>
+        <v>30.01000022888184</v>
       </c>
       <c r="F4">
-        <v>525.461466796875</v>
+        <v>32.13000106811523</v>
       </c>
       <c r="G4">
-        <v>414.5307126953125</v>
+        <v>28.27000045776367</v>
       </c>
       <c r="H4">
-        <v>275900103</v>
+        <v>31367897</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>870809862</v>
@@ -1117,22 +1027,22 @@
         <v>42371</v>
       </c>
       <c r="D5">
-        <v>6.641963849447237</v>
+        <v>34.34000015258789</v>
       </c>
       <c r="E5">
-        <v>6.105104446411133</v>
+        <v>33.93000030517578</v>
       </c>
       <c r="F5">
-        <v>6.766195530737744</v>
+        <v>34.9900016784668</v>
       </c>
       <c r="G5">
-        <v>5.157837421557911</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>1319450062</v>
+        <v>31367897</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>1029063451</v>
@@ -1242,22 +1152,22 @@
         <v>42462</v>
       </c>
       <c r="D6">
-        <v>2.789999961853028</v>
+        <v>35.02000045776367</v>
       </c>
       <c r="E6">
-        <v>3.549999952316284</v>
+        <v>37.38000106811523</v>
       </c>
       <c r="F6">
-        <v>3.990000009536743</v>
+        <v>38.54000091552734</v>
       </c>
       <c r="G6">
-        <v>2.599999904632568</v>
+        <v>34.15000152587891</v>
       </c>
       <c r="H6">
-        <v>1622843689</v>
+        <v>31367897</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>1026342925</v>
@@ -1367,22 +1277,22 @@
         <v>42553</v>
       </c>
       <c r="D7">
-        <v>19.28664066691623</v>
+        <v>34.9900016784668</v>
       </c>
       <c r="E7">
-        <v>20.70916748046875</v>
+        <v>37.91999816894531</v>
       </c>
       <c r="F7">
-        <v>21.18072376920944</v>
+        <v>38.40000152587891</v>
       </c>
       <c r="G7">
-        <v>18.13918698101267</v>
+        <v>34.27000045776367</v>
       </c>
       <c r="H7">
-        <v>199618386</v>
+        <v>31367897</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>955100433</v>
@@ -1492,22 +1402,22 @@
         <v>42644</v>
       </c>
       <c r="D8">
-        <v>22.53000068664551</v>
+        <v>43.7400016784668</v>
       </c>
       <c r="E8">
-        <v>21.92000007629395</v>
+        <v>50.70000076293945</v>
       </c>
       <c r="F8">
-        <v>22.8799991607666</v>
+        <v>50.84000015258789</v>
       </c>
       <c r="G8">
-        <v>20.55999946594238</v>
+        <v>42.06000137329102</v>
       </c>
       <c r="H8">
-        <v>48253392</v>
+        <v>31367897</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>1195360303</v>
@@ -1617,22 +1527,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>534.967198865167</v>
+        <v>59.22000122070312</v>
       </c>
       <c r="E9">
-        <v>450.4078674316406</v>
+        <v>60.56000137329102</v>
       </c>
       <c r="F9">
-        <v>571.2069123366783</v>
+        <v>63.16999816894531</v>
       </c>
       <c r="G9">
-        <v>445.230765507139</v>
+        <v>57.34000015258789</v>
       </c>
       <c r="H9">
-        <v>1333460157</v>
+        <v>31367897</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>1585900704</v>
@@ -1742,22 +1652,22 @@
         <v>42826</v>
       </c>
       <c r="D10">
-        <v>31.714543606655</v>
+        <v>66.11000061035156</v>
       </c>
       <c r="E10">
-        <v>29.28191375732422</v>
+        <v>79.73999786376953</v>
       </c>
       <c r="F10">
-        <v>35.41908996993069</v>
+        <v>82.44000244140625</v>
       </c>
       <c r="G10">
-        <v>28.63552904239356</v>
+        <v>65</v>
       </c>
       <c r="H10">
-        <v>212968277</v>
+        <v>31367897</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>1802064396</v>
@@ -1867,22 +1777,22 @@
         <v>42917</v>
       </c>
       <c r="D11">
-        <v>33.58000183105469</v>
+        <v>83.30000305175781</v>
       </c>
       <c r="E11">
-        <v>36.90000152587891</v>
+        <v>105.5100021362305</v>
       </c>
       <c r="F11">
-        <v>37.5099983215332</v>
+        <v>109.7799987792969</v>
       </c>
       <c r="G11">
-        <v>32.84999847412109</v>
+        <v>79.40000152587891</v>
       </c>
       <c r="H11">
-        <v>272490000</v>
+        <v>31367897</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>2306873195</v>
@@ -1992,22 +1902,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>16.30785379979687</v>
+        <v>77</v>
       </c>
       <c r="E12">
-        <v>16.63021850585938</v>
+        <v>67.19000244140625</v>
       </c>
       <c r="F12">
-        <v>17.91335631168335</v>
+        <v>81.93000030517578</v>
       </c>
       <c r="G12">
-        <v>16.30785379979687</v>
+        <v>62.95999908447266</v>
       </c>
       <c r="H12">
-        <v>118401578</v>
+        <v>31367897</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>2132422583</v>
@@ -2117,22 +2027,22 @@
         <v>43099</v>
       </c>
       <c r="D13">
-        <v>81.52007041122215</v>
+        <v>77.80999755859375</v>
       </c>
       <c r="E13">
-        <v>85.73819732666016</v>
+        <v>88.75</v>
       </c>
       <c r="F13">
-        <v>88.22275425846726</v>
+        <v>94.84999847412109</v>
       </c>
       <c r="G13">
-        <v>80.16549852327762</v>
+        <v>77.68000030517578</v>
       </c>
       <c r="H13">
-        <v>783217500</v>
+        <v>31367897</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>2137977985</v>
@@ -2242,22 +2152,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>15.95295863791121</v>
+        <v>63.97999954223633</v>
       </c>
       <c r="E14">
-        <v>14.81924629211426</v>
+        <v>58.36000061035156</v>
       </c>
       <c r="F14">
-        <v>16.27687689615273</v>
+        <v>68.12000274658203</v>
       </c>
       <c r="G14">
-        <v>13.44259525263616</v>
+        <v>56.90000152587891</v>
       </c>
       <c r="H14">
-        <v>4500000193</v>
+        <v>31367897</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>1793807202</v>
@@ -2367,22 +2277,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>32.36709687656226</v>
+        <v>75.09999847412109</v>
       </c>
       <c r="E15">
-        <v>31.62302398681641</v>
+        <v>79.25</v>
       </c>
       <c r="F15">
-        <v>33.33438902755955</v>
+        <v>89.48000335693359</v>
       </c>
       <c r="G15">
-        <v>30.02327147189045</v>
+        <v>70.86000061035156</v>
       </c>
       <c r="H15">
-        <v>1853869000</v>
+        <v>31367897</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>2106767499</v>
@@ -2492,22 +2402,22 @@
         <v>43372</v>
       </c>
       <c r="D16">
-        <v>17.80631533154568</v>
+        <v>111.3300018310547</v>
       </c>
       <c r="E16">
-        <v>18.92336463928223</v>
+        <v>88.16999816894531</v>
       </c>
       <c r="F16">
-        <v>18.98985598655888</v>
+        <v>114.2200012207031</v>
       </c>
       <c r="G16">
-        <v>15.98445951818033</v>
+        <v>76.11000061035156</v>
       </c>
       <c r="H16">
-        <v>118401578</v>
+        <v>31367897</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>3012472356</v>
@@ -2617,22 +2527,22 @@
         <v>43463</v>
       </c>
       <c r="D17">
-        <v>15.67860004230602</v>
+        <v>82.05999755859375</v>
       </c>
       <c r="E17">
-        <v>16.63607215881348</v>
+        <v>89.79000091552734</v>
       </c>
       <c r="F17">
-        <v>17.00842193314866</v>
+        <v>92.47000122070312</v>
       </c>
       <c r="G17">
-        <v>15.6387057406815</v>
+        <v>77.98000335693359</v>
       </c>
       <c r="H17">
-        <v>118401578</v>
+        <v>31367897</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>2251486429</v>
@@ -2742,22 +2652,22 @@
         <v>43554</v>
       </c>
       <c r="D18">
-        <v>70400.20478639241</v>
+        <v>118.3099975585938</v>
       </c>
       <c r="E18">
-        <v>73566.3515625</v>
+        <v>103.5400009155273</v>
       </c>
       <c r="F18">
-        <v>76732.49833860759</v>
+        <v>132.3000030517578</v>
       </c>
       <c r="G18">
-        <v>70307.08282238925</v>
+        <v>96.5</v>
       </c>
       <c r="H18">
-        <v>690412123</v>
+        <v>31367897</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>3271383502</v>
@@ -2870,22 +2780,22 @@
         <v>43645</v>
       </c>
       <c r="D19">
-        <v>79.999404341103</v>
+        <v>93.9499969482422</v>
       </c>
       <c r="E19">
-        <v>75.06295013427734</v>
+        <v>73.09999847412109</v>
       </c>
       <c r="F19">
-        <v>80.63637197085649</v>
+        <v>96.09999847412109</v>
       </c>
       <c r="G19">
-        <v>74.53972947455722</v>
+        <v>69.25</v>
       </c>
       <c r="H19">
-        <v>783217500</v>
+        <v>31367897</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>2570960017</v>
@@ -2998,22 +2908,22 @@
         <v>43736</v>
       </c>
       <c r="D20">
-        <v>375.8331757494683</v>
+        <v>61.77000045776367</v>
       </c>
       <c r="E20">
-        <v>455.8550720214844</v>
+        <v>48.06000137329102</v>
       </c>
       <c r="F20">
-        <v>460.3506841715976</v>
+        <v>62.38999938964844</v>
       </c>
       <c r="G20">
-        <v>359.6489720090606</v>
+        <v>44</v>
       </c>
       <c r="H20">
-        <v>275900103</v>
+        <v>31367897</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>1696435880</v>
@@ -3126,22 +3036,22 @@
         <v>43827</v>
       </c>
       <c r="D21">
-        <v>952.7945362736426</v>
+        <v>51.29999923706055</v>
       </c>
       <c r="E21">
-        <v>1077.576293945312</v>
+        <v>47.04999923706055</v>
       </c>
       <c r="F21">
-        <v>1084.5343845218</v>
+        <v>57.90000152587891</v>
       </c>
       <c r="G21">
-        <v>946.3003184022546</v>
+        <v>46.68999862670898</v>
       </c>
       <c r="H21">
-        <v>1778087515</v>
+        <v>31367897</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>1475722397</v>
@@ -3254,22 +3164,22 @@
         <v>43918</v>
       </c>
       <c r="D22">
-        <v>915.0351038365764</v>
+        <v>39.56999969482422</v>
       </c>
       <c r="E22">
-        <v>987.2894897460938</v>
+        <v>60.95999908447266</v>
       </c>
       <c r="F22">
-        <v>1014.466893830229</v>
+        <v>62.13000106811523</v>
       </c>
       <c r="G22">
-        <v>861.7111398400884</v>
+        <v>37.0099983215332</v>
       </c>
       <c r="H22">
-        <v>1778087515</v>
+        <v>31367897</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>1228792583</v>
@@ -3370,22 +3280,22 @@
         <v>44009</v>
       </c>
       <c r="D23">
-        <v>47006.4862775259</v>
+        <v>84</v>
       </c>
       <c r="E23">
-        <v>50967.70703125</v>
+        <v>72.69000244140625</v>
       </c>
       <c r="F23">
-        <v>53168.38522776339</v>
+        <v>89.26000213623047</v>
       </c>
       <c r="G23">
-        <v>45862.13361533894</v>
+        <v>70.76000213623047</v>
       </c>
       <c r="H23">
-        <v>5876745450</v>
+        <v>31367897</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>2292928538</v>
@@ -3498,22 +3408,22 @@
         <v>44100</v>
       </c>
       <c r="D24">
-        <v>67.0365573733727</v>
+        <v>76.75</v>
       </c>
       <c r="E24">
-        <v>64.00115203857422</v>
+        <v>79.58000183105469</v>
       </c>
       <c r="F24">
-        <v>68.47148302140339</v>
+        <v>98.5500030517578</v>
       </c>
       <c r="G24">
-        <v>63.04453727911305</v>
+        <v>75.40000152587891</v>
       </c>
       <c r="H24">
-        <v>229140423</v>
+        <v>31367897</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>2145258757</v>
@@ -3626,22 +3536,22 @@
         <v>44198</v>
       </c>
       <c r="D25">
-        <v>253.3200073242188</v>
+        <v>80.47000122070312</v>
       </c>
       <c r="E25">
-        <v>247.0500030517578</v>
+        <v>120.0999984741211</v>
       </c>
       <c r="F25">
-        <v>272.1499938964844</v>
+        <v>197.3999938964844</v>
       </c>
       <c r="G25">
-        <v>236.8999938964844</v>
+        <v>78.54000091552734</v>
       </c>
       <c r="H25">
-        <v>55686229</v>
+        <v>31367897</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>2258343968</v>
@@ -3754,22 +3664,22 @@
         <v>44289</v>
       </c>
       <c r="D26">
-        <v>492.260009765625</v>
+        <v>122.870002746582</v>
       </c>
       <c r="E26">
-        <v>521.4099731445312</v>
+        <v>108.8000030517578</v>
       </c>
       <c r="F26">
-        <v>547.5700073242188</v>
+        <v>125.3499984741211</v>
       </c>
       <c r="G26">
-        <v>490</v>
+        <v>107.9199981689453</v>
       </c>
       <c r="H26">
-        <v>24003656</v>
+        <v>31367897</v>
       </c>
       <c r="I26" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>3431553712</v>
@@ -3870,22 +3780,22 @@
         <v>44380</v>
       </c>
       <c r="D27">
-        <v>133.5278109717678</v>
+        <v>93.62999725341795</v>
       </c>
       <c r="E27">
-        <v>142.5795440673828</v>
+        <v>87.5</v>
       </c>
       <c r="F27">
-        <v>146.6264330221702</v>
+        <v>94.48000335693359</v>
       </c>
       <c r="G27">
-        <v>132.7066916109785</v>
+        <v>80.55999755859375</v>
       </c>
       <c r="H27">
-        <v>14840390000</v>
+        <v>31367897</v>
       </c>
       <c r="I27" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>2564792002</v>
@@ -3986,22 +3896,22 @@
         <v>44471</v>
       </c>
       <c r="D28">
-        <v>74.35084416868511</v>
+        <v>79.08999633789062</v>
       </c>
       <c r="E28">
-        <v>81.03029632568359</v>
+        <v>83.41999816894531</v>
       </c>
       <c r="F28">
-        <v>81.17023033450081</v>
+        <v>85.41999816894531</v>
       </c>
       <c r="G28">
-        <v>73.18473929077386</v>
+        <v>76.20999908447266</v>
       </c>
       <c r="H28">
-        <v>121301203</v>
+        <v>31367897</v>
       </c>
       <c r="I28" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>2237630264</v>
@@ -4114,22 +4024,22 @@
         <v>44562</v>
       </c>
       <c r="D29">
-        <v>382.5833435058594</v>
+        <v>66.33999633789062</v>
       </c>
       <c r="E29">
-        <v>312.239990234375</v>
+        <v>65.51999664306641</v>
       </c>
       <c r="F29">
-        <v>402.6666564941406</v>
+        <v>70.30000305175781</v>
       </c>
       <c r="G29">
-        <v>264.0033264160156</v>
+        <v>58.43999862670898</v>
       </c>
       <c r="H29">
-        <v>3325819167</v>
+        <v>31367897</v>
       </c>
       <c r="I29" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>1776011882</v>
@@ -4230,22 +4140,22 @@
         <v>44653</v>
       </c>
       <c r="D30">
-        <v>237.3500061035156</v>
+        <v>63.88000106811523</v>
       </c>
       <c r="E30">
-        <v>206.6999969482422</v>
+        <v>50.65000152587891</v>
       </c>
       <c r="F30">
-        <v>245.8300018310547</v>
+        <v>65.61000061035156</v>
       </c>
       <c r="G30">
-        <v>200.6699981689453</v>
+        <v>48.36000061035156</v>
       </c>
       <c r="H30">
-        <v>217000000</v>
+        <v>31367897</v>
       </c>
       <c r="I30" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>1715525997</v>
@@ -4346,22 +4256,22 @@
         <v>44744</v>
       </c>
       <c r="D31">
-        <v>5.400000095367432</v>
+        <v>37.13000106811523</v>
       </c>
       <c r="E31">
-        <v>6.130000114440918</v>
+        <v>46.0099983215332</v>
       </c>
       <c r="F31">
-        <v>6.25</v>
+        <v>46.29999923706055</v>
       </c>
       <c r="G31">
-        <v>5.260000228881836</v>
+        <v>36.34999847412109</v>
       </c>
       <c r="H31">
-        <v>590361084</v>
+        <v>31367897</v>
       </c>
       <c r="I31" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>1014406455</v>
@@ -4462,22 +4372,22 @@
         <v>44835</v>
       </c>
       <c r="D32">
-        <v>3.25</v>
+        <v>56.47999954223633</v>
       </c>
       <c r="E32">
-        <v>2.900000095367432</v>
+        <v>56.5</v>
       </c>
       <c r="F32">
-        <v>3.569999933242798</v>
+        <v>56.84999847412109</v>
       </c>
       <c r="G32">
-        <v>2.799999952316284</v>
+        <v>55.34999847412109</v>
       </c>
       <c r="H32">
-        <v>448228270</v>
+        <v>31367897</v>
       </c>
       <c r="I32" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>1533843650</v>
@@ -4578,22 +4488,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>17.67499923706055</v>
+        <v>48.22000122070312</v>
       </c>
       <c r="E33">
-        <v>19.1200008392334</v>
+        <v>45</v>
       </c>
       <c r="F33">
-        <v>19.76000022888184</v>
+        <v>48.81000137329102</v>
       </c>
       <c r="G33">
-        <v>17.08499908447266</v>
+        <v>44.97999954223633</v>
       </c>
       <c r="H33">
-        <v>795535712</v>
+        <v>31367897</v>
       </c>
       <c r="I33" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>1316424807</v>
@@ -4694,22 +4604,22 @@
         <v>45017</v>
       </c>
       <c r="D34">
-        <v>48.39275988647957</v>
+        <v>43.5</v>
       </c>
       <c r="E34">
-        <v>46.79340362548828</v>
+        <v>39.33000183105469</v>
       </c>
       <c r="F34">
-        <v>48.94223296355696</v>
+        <v>43.7400016784668</v>
       </c>
       <c r="G34">
-        <v>45.97900997260158</v>
+        <v>39.2400016784668</v>
       </c>
       <c r="H34">
-        <v>167899010</v>
+        <v>31367897</v>
       </c>
       <c r="I34" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>1196770006</v>
@@ -4810,22 +4720,22 @@
         <v>45108</v>
       </c>
       <c r="D35">
-        <v>436.1446182208199</v>
+        <v>45.25</v>
       </c>
       <c r="E35">
-        <v>428.3382873535156</v>
+        <v>40</v>
       </c>
       <c r="F35">
-        <v>444.701772488369</v>
+        <v>51.4900016784668</v>
       </c>
       <c r="G35">
-        <v>415.4496223149758</v>
+        <v>38.90000152587891</v>
       </c>
       <c r="H35">
-        <v>142720067</v>
+        <v>31367897</v>
       </c>
       <c r="I35" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>1248631758</v>
@@ -4926,22 +4836,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>1366.269412157012</v>
+        <v>37.90000152587891</v>
       </c>
       <c r="E36">
-        <v>1400.426147460938</v>
+        <v>32.93000030517578</v>
       </c>
       <c r="F36">
-        <v>1722.475366040805</v>
+        <v>39.02999877929688</v>
       </c>
       <c r="G36">
-        <v>1356.510344927319</v>
+        <v>32.65000152587891</v>
       </c>
       <c r="H36">
-        <v>134011000</v>
+        <v>31367897</v>
       </c>
       <c r="I36" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>1049686473</v>
@@ -5042,22 +4952,22 @@
         <v>45290</v>
       </c>
       <c r="D37">
-        <v>30.45000076293945</v>
+        <v>38.5</v>
       </c>
       <c r="E37">
-        <v>27.20000076293945</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="F37">
-        <v>30.95000076293945</v>
+        <v>38.86999893188477</v>
       </c>
       <c r="G37">
-        <v>26.79999923706055</v>
+        <v>13.5</v>
       </c>
       <c r="H37">
-        <v>4500000193</v>
+        <v>31367897</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>1078398914</v>
@@ -5158,22 +5068,22 @@
         <v>45381</v>
       </c>
       <c r="D38">
-        <v>17.26041767183271</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="E38">
-        <v>15.59062194824219</v>
+        <v>8.560000419616699</v>
       </c>
       <c r="F38">
-        <v>17.33072480726006</v>
+        <v>10.76000022888184</v>
       </c>
       <c r="G38">
-        <v>15.2478748725656</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="H38">
-        <v>118401578</v>
+        <v>31367897</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>244969581</v>
@@ -5274,22 +5184,22 @@
         <v>45472</v>
       </c>
       <c r="D39">
-        <v>2626.188007061298</v>
+        <v>9.050000190734863</v>
       </c>
       <c r="E39">
-        <v>2566.95068359375</v>
+        <v>11.78999996185303</v>
       </c>
       <c r="F39">
-        <v>2793.039801494892</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="G39">
-        <v>2424.781107271634</v>
+        <v>8.359999656677246</v>
       </c>
       <c r="H39">
-        <v>1333460157</v>
+        <v>31367897</v>
       </c>
       <c r="I39" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>261978584</v>
@@ -5390,22 +5300,22 @@
         <v>45563</v>
       </c>
       <c r="D40">
-        <v>149.5</v>
+        <v>8.689999580383301</v>
       </c>
       <c r="E40">
-        <v>149.5</v>
+        <v>8.729999542236328</v>
       </c>
       <c r="F40">
-        <v>152.4900054931641</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="G40">
-        <v>143.1900024414062</v>
+        <v>7.690000057220459</v>
       </c>
       <c r="H40">
-        <v>168262866</v>
+        <v>31367897</v>
       </c>
       <c r="I40" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>258779106</v>
@@ -5506,22 +5416,22 @@
         <v>45654</v>
       </c>
       <c r="D41">
-        <v>50.08000183105469</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="E41">
-        <v>57.84000015258789</v>
+        <v>7.690000057220459</v>
       </c>
       <c r="F41">
-        <v>59.43999862670898</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="G41">
-        <v>46.88000106811523</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="H41">
-        <v>795535712</v>
+        <v>31367897</v>
       </c>
       <c r="I41" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>242942524</v>
@@ -5622,22 +5532,22 @@
         <v>45745</v>
       </c>
       <c r="D42">
-        <v>157.6999969482422</v>
+        <v>2.690000057220459</v>
       </c>
       <c r="E42">
-        <v>130.3000030517578</v>
+        <v>2.450000047683716</v>
       </c>
       <c r="F42">
-        <v>160.8000030517578</v>
+        <v>2.690000057220459</v>
       </c>
       <c r="G42">
-        <v>125</v>
+        <v>1.759999990463257</v>
       </c>
       <c r="H42">
-        <v>5527428787</v>
+        <v>31367897</v>
       </c>
       <c r="I42" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>86219467</v>
@@ -5738,22 +5648,22 @@
         <v>45836</v>
       </c>
       <c r="D43">
-        <v>4189.703654683593</v>
+        <v>3.150000095367432</v>
       </c>
       <c r="E43">
-        <v>4384.04052734375</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="F43">
-        <v>4409.952110365104</v>
+        <v>5.519999980926514</v>
       </c>
       <c r="G43">
-        <v>3767.145531566123</v>
+        <v>3.049999952316284</v>
       </c>
       <c r="H43">
-        <v>1333460157</v>
+        <v>31367897</v>
       </c>
       <c r="I43" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>100781755</v>
